--- a/指令.xlsx
+++ b/指令.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29012E2F-A12F-475A-949D-942D5EE58AA1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{811893FA-6ED4-49B5-B8BF-95F8AF87DCE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,30 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果A &gt; B则跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果A &lt; B则跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果A == B则跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTJ | JMP |16O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STJ | JMP | 16O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQJ | JMP | 16O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CLF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,6 +499,30 @@
   </si>
   <si>
     <t>IEJI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果A &gt; B则将程序计数器跳转至 [ (ADDR_H &lt;&lt; 4) | ADDR_L ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果A &lt; B则将程序计数器跳转至 [ (ADDR_H &lt;&lt; 4) | ADDR_L ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果A == B则将程序计数器跳转至 [ (ADDR_H &lt;&lt; 4) | ADDR_L ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTJ | 16O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STJ | 16O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQJ | 16O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +862,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1454,87 +1454,81 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
         <v>123</v>
       </c>
-      <c r="B33" t="s">
-        <v>119</v>
-      </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>113</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
+        <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
         <v>124</v>
       </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="H34" t="s">
+        <v>106</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
         <v>125</v>
       </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="H35" t="s">
+        <v>106</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H31" r:id="rId1" xr:uid="{222EDD1C-984C-47BA-8A48-0BDFEF6F74D0}"/>
-    <hyperlink ref="H33" r:id="rId2" xr:uid="{084BC2EF-36FF-4E6C-B0AD-51DDDB3A3DAF}"/>
-    <hyperlink ref="H34" r:id="rId3" xr:uid="{D448327B-C265-4F8C-8D39-D4FFA0FB66C7}"/>
-    <hyperlink ref="H35" r:id="rId4" xr:uid="{786C18DF-2387-430D-B207-1D038B71208E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/指令.xlsx
+++ b/指令.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{811893FA-6ED4-49B5-B8BF-95F8AF87DCE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C677D34-D1C5-4D80-87E7-17090D13B1E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="144">
   <si>
     <t>指令\详细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,78 @@
   </si>
   <si>
     <t>EQJ | 16O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16O | PUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POP | JMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\\\\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将 ((DATA_H &lt;&lt; 8) + DATA_L) 塞入栈内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将栈中Top的数读出将其用做地址并跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,13 +625,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -571,17 +708,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -859,15 +1015,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -890,41 +1046,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>56</v>
@@ -933,21 +1089,21 @@
         <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>56</v>
@@ -956,21 +1112,21 @@
         <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
@@ -979,21 +1135,21 @@
         <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>56</v>
@@ -1002,21 +1158,21 @@
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
@@ -1025,21 +1181,21 @@
         <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
         <v>56</v>
@@ -1048,21 +1204,21 @@
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
         <v>56</v>
@@ -1071,21 +1227,21 @@
         <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
         <v>56</v>
@@ -1094,21 +1250,21 @@
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
@@ -1117,31 +1273,90 @@
         <v>57</v>
       </c>
       <c r="J11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
@@ -1150,67 +1365,67 @@
         <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
@@ -1219,21 +1434,21 @@
         <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
         <v>72</v>
@@ -1242,44 +1457,44 @@
         <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
         <v>56</v>
@@ -1288,44 +1503,67 @@
         <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
         <v>72</v>
@@ -1334,136 +1572,159 @@
         <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26">
+      <c r="J27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="F26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="F29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" t="s">
         <v>105</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H32" t="s">
         <v>106</v>
       </c>
-      <c r="J29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
         <v>105</v>
@@ -1472,21 +1733,21 @@
         <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
         <v>105</v>
@@ -1495,34 +1756,113 @@
         <v>106</v>
       </c>
       <c r="J34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>116</v>
       </c>
     </row>
